--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bloodtype.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bloodtype.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BC68B5-B2A7-45C5-8D30-148C8EB76E13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B473BE-F1E6-4879-BE3E-246C33263BF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>bloodtype_id</t>
   </si>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,50 +521,6 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bloodtype.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bloodtype.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B473BE-F1E6-4879-BE3E-246C33263BF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5469F8-5F7F-46C5-A4D2-BF088E11CA0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>bloodtype_id</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>bloodtype_name_en</t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
   </si>
   <si>
     <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 100 ตัว</t>
@@ -87,6 +84,15 @@
   <si>
     <t>รหัส กรุ๊ปเลือด
 ความยาวไม่เกิน 5 ตัว</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,6 +185,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -497,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,34 +539,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CFA1CC-EC31-4591-B56D-FE1CA7E2D31B}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.453125" customWidth="1"/>
     <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="5" width="25.26953125" customWidth="1"/>
+    <col min="3" max="4" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="7" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,52 +581,61 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bloodtype.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bloodtype.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5469F8-5F7F-46C5-A4D2-BF088E11CA0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A90969-1CD4-4540-8F90-8A177BB4340A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>bloodtype_id</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>company_code</t>
+  </si>
+  <si>
+    <t>OPR</t>
   </si>
 </sst>
 </file>
@@ -169,7 +178,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,6 +196,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -504,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,17 +530,20 @@
     <col min="4" max="4" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -539,103 +554,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CFA1CC-EC31-4591-B56D-FE1CA7E2D31B}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.453125" customWidth="1"/>
     <col min="2" max="2" width="29.6328125" customWidth="1"/>
     <col min="3" max="4" width="25.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" customWidth="1"/>
     <col min="6" max="7" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7"/>
       <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bloodtype.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Bloodtype.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A90969-1CD4-4540-8F90-8A177BB4340A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C499BB45-9573-4003-AF0D-E5C2EBC986CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>bloodtype_id</t>
   </si>
@@ -93,15 +93,6 @@
   </si>
   <si>
     <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>รหัสบริษัท</t>
-  </si>
-  <si>
-    <t>company_code</t>
-  </si>
-  <si>
-    <t>OPR</t>
   </si>
 </sst>
 </file>
@@ -178,7 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,9 +187,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -516,34 +504,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -554,116 +538,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CFA1CC-EC31-4591-B56D-FE1CA7E2D31B}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="4" width="25.26953125" customWidth="1"/>
-    <col min="5" max="5" width="25.453125" customWidth="1"/>
-    <col min="6" max="7" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.6328125" customWidth="1"/>
+    <col min="2" max="3" width="25.26953125" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="5" max="6" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:7" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
         <v>11</v>
       </c>
     </row>
